--- a/biology/Zoologie/Chrysopetalum/Chrysopetalum.xlsx
+++ b/biology/Zoologie/Chrysopetalum/Chrysopetalum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysopetalum est un genre de vers marins polychètes de l'ordre des Phyllodocida et de la famille des Chrysopetalidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Chrysopetalum a été créé en 1864 par le naturaliste autrichien Ernst Heinrich Ehlers (1835-1925) avec comme espèce type, par monotypie, Chrysopetalum fragile Ehlers, 1864 acceptée sous le taxon Chrysopetalum debile (Grube, 1855)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Chrysopetalum a été créé en 1864 par le naturaliste autrichien Ernst Heinrich Ehlers (1835-1925) avec comme espèce type, par monotypie, Chrysopetalum fragile Ehlers, 1864 acceptée sous le taxon Chrysopetalum debile (Grube, 1855),.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (9 décembre 2022)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (9 décembre 2022) :
 Chrysopetalum debile (Grube, 1855)
 Chrysopetalum elegantoides Aguado, Capa &amp; San Martín, 2003
 Chrysopetalum elongatum (Grube, 1856)
@@ -592,7 +608,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(de) Ernst Ehlers, Die Borstenwürmer (Annelida Chaetopoda) nach systematischen und anatomischen Untersuchungen dargestellt, Leipzig, Wilhem Engelmann, 1864, 840 p. (OCLC 3686483, DOI 10.5962/BHL.TITLE.2081, lire en ligne)</t>
         </is>
